--- a/NformTester/NformTester/keywordscripts/TST966_SNMPGloblSetting.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST966_SNMPGloblSetting.xlsx
@@ -4679,8 +4679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4866,7 +4866,7 @@
         <v>759</v>
       </c>
       <c r="B6" s="6">
-        <v>41045</v>
+        <v>41450</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
